--- a/data/trans_bre/P17_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P17_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,78</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>8,63</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>70,96%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>87,71%</t>
+          <t>70,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>31,93%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>67,83%</t>
+          <t>98,43%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>80,46%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>28,71%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>67,85%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>28,58%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 12,93</t>
+          <t>4,75; 12,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 6,23</t>
+          <t>-0,97; 6,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,05; 11,01</t>
+          <t>4,71; 11,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 16,02</t>
+          <t>4,64; 13,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 12,56</t>
+          <t>-0,77; 7,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,32; 119,74</t>
+          <t>4,63; 12,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 86,98</t>
+          <t>0,95; 8,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,87; 158,99</t>
+          <t>32,11; 116,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,21; 176,32</t>
+          <t>-9,0; 88,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,36; 116,84</t>
+          <t>44,27; 170,38</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>35,63; 145,02</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 76,38</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>34,31; 119,2</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 56,68</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>14,35</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7,55</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>92,11%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>72,35%</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>58,75%</t>
+          <t>92,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>52,31%</t>
+          <t>101,96%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>57,58%</t>
+          <t>61,82%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>59,51%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>130,83%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>57,61%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-0,42%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 15,14</t>
+          <t>6,58; 15,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 11,16</t>
+          <t>1,83; 11,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 10,36</t>
+          <t>2,34; 10,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 10,73</t>
+          <t>2,59; 12,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 15,17</t>
+          <t>8,21; 20,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,32; 156,84</t>
+          <t>0,53; 15,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 193,11</t>
+          <t>-8,19; 6,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,06; 118,0</t>
+          <t>45,87; 157,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,66; 102,3</t>
+          <t>9,82; 220,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 148,28</t>
+          <t>16,56; 119,4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13,9; 120,81</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>50,59; 236,16</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 151,49</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-36,16; 43,61</t>
         </is>
       </c>
     </row>
@@ -876,50 +988,70 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,15</t>
+          <t>11,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,95</t>
+          <t>8,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-3,48</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>60,19%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>112,29%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>60,06%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34,38%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>32,35%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-19,18%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 21,51</t>
+          <t>-1,56; 22,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 17,16</t>
+          <t>0,78; 16,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 12,17</t>
+          <t>-3,5; 12,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 13,64</t>
+          <t>-3,36; 14,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-20,02; 7,77</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-12,58; 170,15</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 338,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,12; 123,79</t>
+          <t>-9,93; 177,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 121,64</t>
+          <t>-1,42; 320,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-20,59; 130,8</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-18,33; 122,26</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-67,4; 77,1</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>6,94</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>8,38</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>76,18%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,25%</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>76,15%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>63,69%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>71,34%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>63,81%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>54,88%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>65,46%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>65,93%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>65,44%</t>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 13,06</t>
+          <t>6,81; 13,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,64</t>
+          <t>2,66; 8,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,14</t>
+          <t>4,23; 9,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 11,25</t>
+          <t>4,67; 10,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,29; 12,03</t>
+          <t>2,72; 10,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,91; 113,1</t>
+          <t>4,85; 12,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,71; 104,2</t>
+          <t>-0,0; 7,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,26; 104,69</t>
+          <t>45,2; 108,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,54; 104,8</t>
+          <t>25,92; 119,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,39; 108,06</t>
+          <t>37,11; 104,94</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>33,78; 98,32</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16,37; 92,81</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>32,61; 103,81</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 46,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P17_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P17_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,14</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,08</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,65</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,63</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>70,97%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>31,93%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>98,43%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>80,46%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>28,71%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>67,85%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>28,58%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>9.139237484360279</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.267795168953795</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.658111388255581</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>8.66595768212567</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>3.697314694937456</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>8.627096387229201</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>4.817685973697469</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.7096703440843668</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.360776737060072</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.9146569784896752</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.7914682085300246</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.2932734653663237</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.678504891096061</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.2808355118030332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>4,75; 12,86</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 6,53</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,71; 11,44</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4,64; 13,12</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 7,72</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4,63; 12,49</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 8,8</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>32,11; 116,22</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-9,0; 88,45</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>44,27; 170,38</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>35,63; 145,02</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-5,24; 76,38</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>34,31; 119,2</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>4,04; 56,68</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>4.754438962554273</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.8776373679509851</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>4.197696324766503</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>4.648720778772496</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.7977750758522697</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>4.625027890507369</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.8005984900261662</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.3210604051525796</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.08161970000591839</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.3784742396874005</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.3497517596489762</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.05844366200185516</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.343102875314257</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.03721480276169589</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.85867557545802</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.806273333505613</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.95943799910238</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>13.66702445067452</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>7.947755885212596</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>12.48556590739635</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>8.685917730266748</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.162181590931138</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.9533420681386726</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.613813935323799</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.459669720430281</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.8034994080373734</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>1.19195069803689</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.5588069026807883</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10,71</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,27</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,67</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,31</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,35</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,55</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>92,1%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>101,96%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>61,82%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>59,51%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>130,83%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>57,61%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>-0,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>6,58; 15,06</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 11,68</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,34; 10,71</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 12,1</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>8,21; 20,25</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 15,21</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-8,19; 6,88</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>45,87; 157,96</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>9,82; 220,59</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>16,56; 119,4</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>13,9; 120,81</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>50,59; 236,16</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 151,49</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-36,16; 43,61</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>10.70620043127465</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.085294509564354</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.508912906529169</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7.211510870423313</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>14.00978633583576</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>7.547554109502092</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1020369919713687</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9210052631036141</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.8996825953476169</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.6006715784506625</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.5863177042047085</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>1.291857019815803</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.5760778065711584</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>-0.005495936068177466</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,13</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,73</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,67</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,22</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,48</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>60,06%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>98,84%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>34,38%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>32,35%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-19,18%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>6.578768267998264</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.303378593268894</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.120352765192936</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2.351952177224638</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>7.86954253311489</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.5322273342046401</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-8.067556352063551</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.4587354942276069</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.05151920750911831</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.1488992318698003</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.1195253904226632</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.4843361530478461</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.02631670820586941</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.359291664798759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 22,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 16,87</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,5; 12,4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 14,22</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-20,02; 7,77</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-9,93; 177,27</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 320,51</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-20,59; 130,8</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-18,33; 122,26</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-67,4; 77,1</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>15.05921724469192</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.98346640543144</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.51806190699094</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.91466963832072</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>19.56106422838776</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>15.21302563930169</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>7.087521089017952</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.579613771919827</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.18629903417852</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.179014072249284</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.179918756506215</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>2.333085256318109</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>1.514877189120082</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.4449614810710192</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>9,95</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,31</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,06</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,67</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,94</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>8,38</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>3,77</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>76,15%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>63,69%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>71,34%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>63,81%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>54,88%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>65,46%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>21,57%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>11.13295244292144</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.882257324679674</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.838316045225699</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.920646268086531</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-3.648905773316274</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.6006033252641023</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.156142589272108</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.3519687298127279</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.3052730858951294</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>-0.1995308468016078</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>6,81; 13,0</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 8,14</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,23; 9,2</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,67; 10,5</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,72; 10,24</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 12,06</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-0,0; 7,16</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>45,2; 108,78</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>25,92; 119,96</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>37,11; 104,94</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>33,78; 98,32</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>16,37; 92,81</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>32,61; 103,81</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 46,12</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.562030003987022</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.8586007578296488</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.487464394303859</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.666621410588594</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-20.42311146803954</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.09927702679532094</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.01268250046680149</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.2005270423855211</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.184896980950863</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.6857387486299664</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>21.99788063864249</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.04913662881274</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.71779572728953</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>13.78865792551877</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>7.774725927027366</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>1.772650935591572</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>3.241902087497626</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.306666972408826</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>1.209471150168526</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.7480807447057853</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>9.949653876514795</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>5.411372233561412</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.805234421363597</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.613543166550161</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>6.818594816020232</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>8.384182543713905</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>3.700527659156777</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.7615144905255155</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.6431160479956672</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.679584103785472</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.6279878826432929</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.5413659555762372</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.6546182194077848</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.211487508406608</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>6.812738153450431</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.223185457437562</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3.959843116115477</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>4.612453734706014</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.356480869746862</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>4.853095727790426</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.09089921176784638</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.4520419957023763</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1990936454037028</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.34288434769649</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.3467717128623601</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.150959800005236</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.3261354486840258</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.003814480188888335</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>13.00357790117753</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.257424367211438</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.069254924361147</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.56155621799146</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>10.061804033632</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>12.05582578417179</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>7.10493227073553</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.087801310712766</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.200723335527372</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.029148152321941</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.9884567487297207</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.9191344305471955</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>1.038117519204302</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.4557002467068889</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
